--- a/temp/Getsu/Resources/ExportExcel.xlsx
+++ b/temp/Getsu/Resources/ExportExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>3.年</t>
   </si>
@@ -57,7 +57,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +67,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,13 +104,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,13 +421,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:BF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +437,7 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -513,6 +523,91 @@
         <v>24</v>
       </c>
       <c r="AC1" s="3">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL1" s="5">
+        <v>6</v>
+      </c>
+      <c r="AM1" s="5">
+        <v>7</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>8</v>
+      </c>
+      <c r="AO1" s="5">
+        <v>9</v>
+      </c>
+      <c r="AP1" s="5">
+        <v>10</v>
+      </c>
+      <c r="AQ1" s="5">
+        <v>11</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT1" s="5">
+        <v>13</v>
+      </c>
+      <c r="AU1" s="5">
+        <v>14</v>
+      </c>
+      <c r="AV1" s="5">
+        <v>15</v>
+      </c>
+      <c r="AW1" s="5">
+        <v>16</v>
+      </c>
+      <c r="AX1" s="5">
+        <v>17</v>
+      </c>
+      <c r="AY1" s="5">
+        <v>18</v>
+      </c>
+      <c r="AZ1" s="5">
+        <v>19</v>
+      </c>
+      <c r="BA1" s="5">
+        <v>20</v>
+      </c>
+      <c r="BB1" s="5">
+        <v>21</v>
+      </c>
+      <c r="BC1" s="5">
+        <v>22</v>
+      </c>
+      <c r="BD1" s="5">
+        <v>23</v>
+      </c>
+      <c r="BE1" s="5">
+        <v>24</v>
+      </c>
+      <c r="BF1" s="5">
         <v>25</v>
       </c>
     </row>

--- a/temp/Getsu/Resources/ExportExcel.xlsx
+++ b/temp/Getsu/Resources/ExportExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>3.年</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Tên file ảnh (Đường dẫn\tên batch\tên file ảnh)</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -421,13 +424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF1"/>
+  <dimension ref="A1:BG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +440,7 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -609,6 +612,9 @@
       </c>
       <c r="BF1" s="5">
         <v>25</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
